--- a/biology/Zoologie/Colibri_rubis-émeraude/Colibri_rubis-émeraude.xlsx
+++ b/biology/Zoologie/Colibri_rubis-émeraude/Colibri_rubis-émeraude.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Colibri_rubis-%C3%A9meraude</t>
+          <t>Colibri_rubis-émeraude</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Clytolaema rubricauda
 Le Colibri rubis-émeraude (Clytolaema rubricauda) est une espèce de colibris endémique du Brésil. D'après Alan P. Peterson, c'est une espèce monotypique, et c'est la seule espèce du genre Clytolaema.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Colibri_rubis-%C3%A9meraude</t>
+          <t>Colibri_rubis-émeraude</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,6 +525,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -520,7 +534,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Colibri_rubis-%C3%A9meraude</t>
+          <t>Colibri_rubis-émeraude</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -538,7 +552,9 @@
           <t>Habitats</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Ses habitats sont les forêts tropicales et subtropicales humides de montagne, la végétation tropicale et subtropicale humide de broussailles. On la trouve aussi sur les sites d'anciennes forêts lourdement dégradées, les plantations, les jardins ruraux et dans diverses autres zones urbaines.
 </t>
@@ -551,7 +567,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Colibri_rubis-%C3%A9meraude</t>
+          <t>Colibri_rubis-émeraude</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -569,7 +585,9 @@
           <t>Conservation</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">La population d'oiseau n'a pas été quantifiée, mais cette espèce est décrite comme plutôt commune.
 </t>
@@ -582,7 +600,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Colibri_rubis-%C3%A9meraude</t>
+          <t>Colibri_rubis-émeraude</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -600,7 +618,9 @@
           <t>Sources</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">(en) Référence Congrès ornithologique international : Clytolaema rubricauda dans l'ordre Apodiformes (consulté le 18 mai 2015)
 (fr + en) Référence Avibase : Clytolaema rubricauda (+ répartition) (consulté le 1er juillet 2015)
